--- a/java/OrangeHRM Project Test.xlsx
+++ b/java/OrangeHRM Project Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeetpandya/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeetpandya/Desktop/TESTAPPS/EclipseWorkspace/OrangeHRMProject/src/test/java/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86844F10-7EE2-A34F-9396-8F11C7FF38E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5C3CC9-2839-614C-8FED-EA3D577F15E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" activeTab="1" xr2:uid="{BE54CC77-6317-9D48-AECE-576EFB661B54}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Test Cases" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Cases'!$H$1:$H$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Cases'!$H$1:$H$72</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="234">
   <si>
     <t>Test Scenarios</t>
   </si>
@@ -501,30 +501,10 @@
     <t>Enter name in employee name</t>
   </si>
   <si>
-    <t>1. Click on Employee name textbox
-2. Enter First name</t>
-  </si>
-  <si>
-    <t>Jeet</t>
-  </si>
-  <si>
     <t>Shows hint with same name employees</t>
   </si>
   <si>
     <t>Hint is shown as dropdown</t>
-  </si>
-  <si>
-    <t>Enter Employee ID in name</t>
-  </si>
-  <si>
-    <t>1. Click on Employee name textbox
-2. Enter Employee ID</t>
-  </si>
-  <si>
-    <t>Shows user "Jeet Pandya"</t>
-  </si>
-  <si>
-    <t>No numerics allowed in name</t>
   </si>
   <si>
     <t>TC25</t>
@@ -586,12 +566,6 @@
   </si>
   <si>
     <t>Check for Employee Name shown in dropdown</t>
-  </si>
-  <si>
-    <t>1. Click on Employee name textbox
-2. Enter name partially
-3. Check for name appearance in list
-4. Click on name</t>
   </si>
   <si>
     <t>Name should appear on list</t>
@@ -821,7 +795,17 @@
 admin1</t>
   </si>
   <si>
-    <t>TC63</t>
+    <t>Jeet Pandya</t>
+  </si>
+  <si>
+    <t>1. Click on Employee name textbox
+2. Enter name
+3. Check for name appearance in list
+4. Click on name</t>
+  </si>
+  <si>
+    <t>1. Click on Employee name textbox
+2. Enter name</t>
   </si>
 </sst>
 </file>
@@ -894,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -927,6 +911,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1344,11 +1331,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B122083-2963-5E44-B6A4-61C1C3AE8D05}">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1456,7 +1443,7 @@
         <v>50</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>40</v>
@@ -1482,7 +1469,7 @@
         <v>51</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>40</v>
@@ -1531,10 +1518,10 @@
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>54</v>
@@ -1557,10 +1544,10 @@
         <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E9" s="1">
         <v>12345</v>
@@ -1583,13 +1570,13 @@
         <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>42</v>
@@ -1618,7 +1605,7 @@
         <v>58</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>59</v>
@@ -2016,7 +2003,7 @@
         <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>120</v>
@@ -2045,7 +2032,7 @@
         <v>126</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>128</v>
@@ -2068,7 +2055,7 @@
         <v>126</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>132</v>
@@ -2091,7 +2078,7 @@
         <v>126</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>136</v>
@@ -2114,22 +2101,22 @@
         <v>126</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>43</v>
@@ -2140,25 +2127,25 @@
         <v>126</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="1">
-        <v>12345</v>
+        <v>79</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>44</v>
+        <v>59</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2166,16 +2153,16 @@
         <v>126</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>79</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>59</v>
@@ -2192,25 +2179,25 @@
         <v>126</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>53</v>
+      <c r="E37" s="1">
+        <v>12345</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>43</v>
+      <c r="H37" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2218,71 +2205,71 @@
         <v>126</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="1">
-        <v>12345</v>
+        <v>81</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>44</v>
+        <v>83</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>158</v>
+      <c r="B39" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>43</v>
@@ -2293,18 +2280,18 @@
         <v>126</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>100</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F41" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G41" s="3" t="s">
@@ -2314,27 +2301,27 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>100</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>101</v>
+        <v>59</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>43</v>
@@ -2345,22 +2332,19 @@
         <v>126</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>43</v>
@@ -2371,45 +2355,45 @@
         <v>126</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>43</v>
@@ -2420,19 +2404,22 @@
         <v>126</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>43</v>
@@ -2443,126 +2430,123 @@
         <v>126</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="C51" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D51" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>43</v>
@@ -2570,22 +2554,22 @@
     </row>
     <row r="53" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>43</v>
@@ -2593,19 +2577,19 @@
     </row>
     <row r="54" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D54" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>194</v>
@@ -2616,22 +2600,22 @@
     </row>
     <row r="55" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>43</v>
@@ -2639,19 +2623,19 @@
     </row>
     <row r="56" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>194</v>
@@ -2660,53 +2644,53 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D57" s="6" t="s">
+    <row r="57" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>180</v>
+      <c r="C59" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>43</v>
@@ -2714,22 +2698,22 @@
     </row>
     <row r="60" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>43</v>
@@ -2737,19 +2721,19 @@
     </row>
     <row r="61" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D61" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>194</v>
@@ -2760,22 +2744,22 @@
     </row>
     <row r="62" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>43</v>
@@ -2783,19 +2767,19 @@
     </row>
     <row r="63" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>194</v>
@@ -2804,73 +2788,76 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D65" s="8"/>
+    <row r="64" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="66" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>217</v>
+        <v>61</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>43</v>
+      <c r="H66" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>62</v>
@@ -2882,112 +2869,86 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D70" s="6" t="s">
+      <c r="F70" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="G70" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H70" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>43</v>
-      </c>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
